--- a/app/Plantillas/Entrada/PRUEBA_EmailError.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_EmailError.xlsx
@@ -722,15 +722,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E126DFC2-DD8C-48EA-9818-43BC27BE8425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2D6D36-BDCE-4443-ACFD-32F986029492}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35460354-DE37-4566-851A-C41AE4217DC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA0D8E8-E889-4097-8BC1-657E7FB7022C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E81CB63D-9DAF-454D-AE90-1EC48D02C5D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8DB857-641C-418B-AED1-A072ABFB5750}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/app/Plantillas/Entrada/PRUEBA_EmailError.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_EmailError.xlsx
@@ -722,15 +722,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2D6D36-BDCE-4443-ACFD-32F986029492}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191399C4-B4E7-49FB-8F00-598AE224C6F5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA0D8E8-E889-4097-8BC1-657E7FB7022C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7B2EC1-1389-4075-AADD-9267015FA93C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8DB857-641C-418B-AED1-A072ABFB5750}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D212884-D937-4975-B20D-07F6CA6F61F2}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
